--- a/common/iris 主要模块/装修预算2.xlsx
+++ b/common/iris 主要模块/装修预算2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
   <si>
     <t xml:space="preserve">馨苑悦湾
 </t>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>厨房，3个卧室，2个厕所</t>
+  </si>
+  <si>
+    <t>定金4850 尾款4850</t>
   </si>
   <si>
     <t>窗帘，</t>
@@ -588,10 +591,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
@@ -622,43 +625,11 @@
       <charset val="0"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -671,6 +642,78 @@
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -689,47 +732,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -828,13 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,13 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,13 +867,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,31 +903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,6 +1005,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1017,10 +1029,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -1036,41 +1074,6 @@
         <color indexed="63"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
         <color indexed="63"/>
       </bottom>
       <diagonal/>
@@ -1104,130 +1107,130 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,10 +1339,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1446,25 +1449,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="输入" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
-    <cellStyle name="差" xfId="15"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="输入" xfId="13"/>
+    <cellStyle name="差" xfId="14"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
+    <cellStyle name="警告文本" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="警告文本" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="强调文字颜色 2" xfId="21"/>
+    <cellStyle name="链接单元格" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="链接单元格" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
-    <cellStyle name="标题 3" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
-    <cellStyle name="输出" xfId="27"/>
+    <cellStyle name="强调文字颜色 2" xfId="23"/>
+    <cellStyle name="标题 3" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
+    <cellStyle name="输出" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
+    <cellStyle name="强调文字颜色 1" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -1815,7 +1818,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -2178,7 +2181,9 @@
         <f>E18*F18</f>
         <v>9700</v>
       </c>
-      <c r="H18" s="36"/>
+      <c r="H18" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" s="4" customFormat="1" ht="22" customHeight="1" spans="1:8">
       <c r="A19" s="33"/>
@@ -2186,9 +2191,9 @@
       <c r="C19" s="35"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" s="4" customFormat="1" ht="20" customHeight="1" spans="1:8">
       <c r="A20" s="33"/>
@@ -2196,14 +2201,14 @@
       <c r="C20" s="35"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" s="3" customFormat="1" customHeight="1" spans="1:8">
       <c r="A21" s="16"/>
       <c r="B21" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="16"/>
@@ -2217,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22" s="20">
         <v>1</v>
@@ -2242,10 +2247,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="20">
         <v>1</v>
@@ -2267,10 +2272,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="D24" s="20">
         <v>1</v>
@@ -2292,10 +2297,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="20">
         <v>1</v>
@@ -2317,10 +2322,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" s="20">
         <v>1</v>
@@ -2342,10 +2347,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" s="20">
         <v>1</v>
@@ -2367,10 +2372,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" s="20">
         <v>1</v>
@@ -2392,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="20">
         <v>1</v>
@@ -2417,10 +2422,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="20">
         <v>1</v>
@@ -2442,10 +2447,10 @@
         <v>10</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="20">
         <v>1</v>
@@ -2467,7 +2472,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="20">
@@ -2503,7 +2508,7 @@
     <row r="34" s="3" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="17"/>
@@ -2517,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="20" t="s">
@@ -2533,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -2541,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="20" t="s">
@@ -2558,7 +2563,7 @@
         <v>3000</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -2566,7 +2571,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="20" t="s">
@@ -2589,10 +2594,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>14</v>
@@ -2608,7 +2613,7 @@
         <v>1100</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" customHeight="1" spans="1:8">
@@ -2620,7 +2625,7 @@
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G39" s="31">
         <f>SUM(G35:G38)</f>
@@ -2631,7 +2636,7 @@
     <row r="40" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:8">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="17"/>
@@ -2645,10 +2650,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>14</v>
@@ -2664,7 +2669,7 @@
         <v>21000</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -2672,10 +2677,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>14</v>
@@ -2691,7 +2696,7 @@
         <v>6000</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -2699,10 +2704,10 @@
         <v>3</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>31</v>
@@ -2724,10 +2729,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>31</v>
@@ -2749,10 +2754,10 @@
         <v>5</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>14</v>
@@ -2768,7 +2773,7 @@
         <v>8000</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -2776,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="20" t="s">
@@ -2799,10 +2804,10 @@
         <v>7</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>14</v>
@@ -2818,7 +2823,7 @@
         <v>3000</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -2826,7 +2831,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="20" t="s">
@@ -2849,10 +2854,10 @@
         <v>9</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>31</v>
@@ -2874,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="20" t="s">
@@ -2897,10 +2902,10 @@
         <v>11</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>31</v>
@@ -2925,7 +2930,7 @@
       <c r="D52" s="28"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G52" s="31">
         <f>SUM(G41:G51)</f>
@@ -2936,7 +2941,7 @@
     <row r="53" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" s="39"/>
       <c r="D53" s="40"/>
@@ -2950,10 +2955,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>14</v>
@@ -2968,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
@@ -2976,10 +2981,10 @@
         <v>2</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>14</v>
@@ -2994,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
@@ -3002,10 +3007,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>14</v>
@@ -3026,10 +3031,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>14</v>
@@ -3050,10 +3055,10 @@
         <v>5</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>14</v>
@@ -3074,10 +3079,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>31</v>
@@ -3103,7 +3108,7 @@
       <c r="D60" s="28"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G60" s="31">
         <f>SUM(G54:G59)</f>
@@ -3114,7 +3119,7 @@
     <row r="61" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A61" s="17"/>
       <c r="B61" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C61" s="39"/>
       <c r="D61" s="40"/>
@@ -3128,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>14</v>
@@ -3146,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3154,10 +3159,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>14</v>
@@ -3172,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3180,10 +3185,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>31</v>
@@ -3198,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3206,10 +3211,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>14</v>
@@ -3230,10 +3235,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>31</v>
@@ -3259,7 +3264,7 @@
       <c r="D67" s="20"/>
       <c r="E67" s="13"/>
       <c r="F67" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G67" s="15">
         <f>SUM(G62:G66)</f>
@@ -3270,7 +3275,7 @@
     <row r="68" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C68" s="39"/>
       <c r="D68" s="40"/>
@@ -3284,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>14</v>
@@ -3308,10 +3313,10 @@
         <v>2</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>14</v>
@@ -3333,10 +3338,10 @@
         <v>3</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>31</v>
@@ -3352,7 +3357,7 @@
         <v>6000</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3360,10 +3365,10 @@
         <v>4</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>14</v>
@@ -3384,10 +3389,10 @@
         <v>5</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>31</v>
@@ -3412,7 +3417,7 @@
       <c r="D74" s="20"/>
       <c r="E74" s="13"/>
       <c r="F74" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G74" s="15">
         <f>SUM(G69:G73)</f>
@@ -3423,7 +3428,7 @@
     <row r="75" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C75" s="39"/>
       <c r="D75" s="40"/>
@@ -3437,10 +3442,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>31</v>
@@ -3455,7 +3460,7 @@
         <v>8000</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3463,10 +3468,10 @@
         <v>2</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>14</v>
@@ -3488,10 +3493,10 @@
         <v>3</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>31</v>
@@ -3506,7 +3511,7 @@
         <v>1000</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3514,10 +3519,10 @@
         <v>4</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>31</v>
@@ -3532,7 +3537,7 @@
         <v>5000</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3540,10 +3545,10 @@
         <v>5</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>31</v>
@@ -3565,7 +3570,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="20" t="s">
@@ -3588,10 +3593,10 @@
         <v>7</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>31</v>
@@ -3617,7 +3622,7 @@
       <c r="D83" s="20"/>
       <c r="E83" s="13"/>
       <c r="F83" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G83" s="15">
         <f>SUM(G76:G82)</f>
@@ -3628,7 +3633,7 @@
     <row r="84" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C84" s="39"/>
       <c r="D84" s="40"/>
@@ -3642,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>31</v>
@@ -3660,7 +3665,7 @@
         <v>5500</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3668,10 +3673,10 @@
         <v>2</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>14</v>
@@ -3693,10 +3698,10 @@
         <v>3</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>31</v>
@@ -3711,7 +3716,7 @@
         <v>1000</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3719,10 +3724,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>31</v>
@@ -3743,10 +3748,10 @@
         <v>5</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>31</v>
@@ -3761,7 +3766,7 @@
         <v>2500</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3769,10 +3774,10 @@
         <v>6</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>31</v>
@@ -3787,7 +3792,7 @@
         <v>3600</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" ht="17" customHeight="1" spans="1:8">
@@ -3795,7 +3800,7 @@
         <v>7</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="20" t="s">
@@ -3818,7 +3823,7 @@
         <v>8</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C92" s="14"/>
       <c r="D92" s="20" t="s">
@@ -3841,10 +3846,10 @@
         <v>9</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>31</v>
@@ -3870,7 +3875,7 @@
       <c r="D94" s="20"/>
       <c r="E94" s="13"/>
       <c r="F94" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G94" s="15">
         <f>SUM(G85:G93)</f>
@@ -3881,7 +3886,7 @@
     <row r="95" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C95" s="39"/>
       <c r="D95" s="40"/>
@@ -3895,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="20" t="s">
@@ -3915,10 +3920,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>31</v>
@@ -3940,10 +3945,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>31</v>
@@ -3965,10 +3970,10 @@
         <v>5</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>31</v>
@@ -3983,7 +3988,7 @@
         <v>4000</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
@@ -3991,10 +3996,10 @@
         <v>6</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D100" s="20" t="s">
         <v>31</v>
@@ -4016,10 +4021,10 @@
         <v>8</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D101" s="20" t="s">
         <v>31</v>
@@ -4045,7 +4050,7 @@
       <c r="D102" s="28"/>
       <c r="E102" s="28"/>
       <c r="F102" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G102" s="31">
         <f>SUM(G96:G101)</f>
@@ -4056,7 +4061,7 @@
     <row r="103" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C103" s="39"/>
       <c r="D103" s="40"/>
@@ -4070,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C104" s="14"/>
       <c r="D104" s="20" t="s">
@@ -4092,7 +4097,7 @@
         <v>2</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C105" s="14"/>
       <c r="D105" s="20" t="s">
@@ -4119,7 +4124,7 @@
       <c r="D106" s="28"/>
       <c r="E106" s="28"/>
       <c r="F106" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G106" s="31">
         <f>SUM(G104:G105)</f>
@@ -4130,7 +4135,7 @@
     <row r="107" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A107" s="17"/>
       <c r="B107" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C107" s="39"/>
       <c r="D107" s="40"/>
@@ -4144,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C108" s="14"/>
       <c r="D108" s="20" t="s">
@@ -4167,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="20" t="s">
@@ -4188,7 +4193,7 @@
     <row r="110" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C110" s="39"/>
       <c r="D110" s="40"/>
@@ -4202,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C111" s="43"/>
       <c r="D111" s="44"/>
@@ -4222,7 +4227,7 @@
       <c r="D112" s="28"/>
       <c r="E112" s="28"/>
       <c r="F112" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G112" s="31">
         <f>SUM(G111:G111)</f>
@@ -4247,7 +4252,7 @@
       <c r="D114" s="47"/>
       <c r="E114" s="47"/>
       <c r="F114" s="49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G114" s="52">
         <f>SUM(G39,G10,G52,G60,G67,G112,G102,G94,G83,G74,G33,G106)</f>
@@ -4268,7 +4273,7 @@
     <row r="116" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A116" s="53"/>
       <c r="B116" s="53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C116" s="54"/>
       <c r="D116" s="55"/>
@@ -4282,10 +4287,10 @@
         <v>1</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C117" s="57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D117" s="58"/>
       <c r="E117" s="59">
@@ -4299,7 +4304,7 @@
         <v>16842.8</v>
       </c>
       <c r="H117" s="62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
@@ -4327,10 +4332,10 @@
         <v>1</v>
       </c>
       <c r="B120" s="48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C120" s="57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D120" s="58"/>
       <c r="E120" s="59">
@@ -4349,10 +4354,10 @@
         <v>2</v>
       </c>
       <c r="B121" s="48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C121" s="57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D121" s="58"/>
       <c r="E121" s="59">
@@ -4371,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C122" s="57"/>
       <c r="D122" s="58"/>
@@ -4391,7 +4396,7 @@
         <v>4</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C123" s="57"/>
       <c r="D123" s="58"/>
@@ -4411,10 +4416,10 @@
         <v>5</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C124" s="57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D124" s="58"/>
       <c r="E124" s="59">
@@ -4433,7 +4438,7 @@
         <v>6</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C125" s="63"/>
       <c r="D125" s="63"/>
@@ -4453,7 +4458,7 @@
         <v>7</v>
       </c>
       <c r="B126" s="48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C126" s="57"/>
       <c r="D126" s="58"/>
@@ -4473,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C127" s="57"/>
       <c r="D127" s="58"/>
@@ -4493,7 +4498,7 @@
         <v>9</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C128" s="57"/>
       <c r="D128" s="58"/>
@@ -4513,7 +4518,7 @@
         <v>10</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C129" s="57"/>
       <c r="D129" s="58"/>
@@ -4533,7 +4538,7 @@
         <v>11</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C130" s="57"/>
       <c r="D130" s="58"/>
@@ -4553,7 +4558,7 @@
         <v>12</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C131" s="57"/>
       <c r="D131" s="58"/>
@@ -4573,7 +4578,7 @@
         <v>13</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C132" s="57"/>
       <c r="D132" s="58"/>
@@ -4593,7 +4598,7 @@
         <v>14</v>
       </c>
       <c r="B133" s="48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C133" s="57"/>
       <c r="D133" s="58"/>
@@ -4607,7 +4612,7 @@
         <v>16</v>
       </c>
       <c r="B134" s="48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C134" s="57"/>
       <c r="D134" s="58"/>
@@ -4627,10 +4632,10 @@
         <v>17</v>
       </c>
       <c r="B135" s="48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C135" s="57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D135" s="58"/>
       <c r="E135" s="59">
@@ -4649,7 +4654,7 @@
         <v>18</v>
       </c>
       <c r="B136" s="48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C136" s="57"/>
       <c r="D136" s="58"/>
@@ -4669,12 +4674,12 @@
         <v>19</v>
       </c>
       <c r="B137" s="48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C137" s="57"/>
       <c r="D137" s="58"/>
       <c r="E137" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F137" s="60">
         <v>0</v>
@@ -4691,7 +4696,7 @@
       <c r="D138" s="47"/>
       <c r="E138" s="47"/>
       <c r="F138" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G138" s="50">
         <f>SUM(G117:G137)</f>

--- a/common/iris 主要模块/装修预算2.xlsx
+++ b/common/iris 主要模块/装修预算2.xlsx
@@ -10,16 +10,16 @@
     <sheet name="硬装半包预算" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">硬装半包预算!$A$2:H112</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">硬装半包预算!$A$2:H116</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">硬装半包预算!$1:3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">硬装半包预算!$A$2:$FG$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">硬装半包预算!$A$2:$FG$143</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
   <si>
     <t xml:space="preserve">馨苑悦湾
 </t>
@@ -187,6 +187,9 @@
     <t>阳台西侧窗帘</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>阳台北侧窗帘</t>
   </si>
   <si>
@@ -202,10 +205,22 @@
     <t>所有窗？？</t>
   </si>
   <si>
+    <t>瓷砖</t>
+  </si>
+  <si>
+    <t>客厅，走道，阳台（35.6一块  98一平左右）需要菱形铺！</t>
+  </si>
+  <si>
+    <t>已付定金2000</t>
+  </si>
+  <si>
+    <t>入门造型砖（水刀费 700每平）</t>
+  </si>
+  <si>
     <t>阳台</t>
   </si>
   <si>
-    <t>洗衣柜</t>
+    <t>洗衣柜 （不超过 110*60）</t>
   </si>
   <si>
     <t>商品+安装</t>
@@ -591,12 +606,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="32">
@@ -606,21 +621,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="23"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -639,31 +656,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -675,29 +681,40 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -716,23 +733,21 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -819,13 +834,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +870,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,67 +924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,15 +996,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1001,15 +1007,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,6 +1026,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -1040,26 +1046,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,6 +1064,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1092,7 +1107,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,136 +1116,136 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1449,25 +1464,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="输入" xfId="13"/>
-    <cellStyle name="差" xfId="14"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
+    <cellStyle name="输入" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
+    <cellStyle name="差" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="警告文本" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
+    <cellStyle name="警告文本" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="链接单元格" xfId="21"/>
+    <cellStyle name="强调文字颜色 2" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="强调文字颜色 2" xfId="23"/>
-    <cellStyle name="标题 3" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
-    <cellStyle name="输出" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
+    <cellStyle name="标题 3" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
+    <cellStyle name="输出" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
-    <cellStyle name="强调文字颜色 1" xfId="30"/>
+    <cellStyle name="强调文字颜色 1" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -1813,12 +1828,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H4628"/>
+  <dimension ref="A1:H4632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -2358,12 +2373,12 @@
       <c r="E27" s="13">
         <v>1</v>
       </c>
-      <c r="F27" s="21">
-        <v>1600</v>
-      </c>
-      <c r="G27" s="15">
+      <c r="F27" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="15" t="e">
         <f>E27*F27</f>
-        <v>1600</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H27" s="15"/>
     </row>
@@ -2372,7 +2387,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>43</v>
@@ -2397,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>46</v>
@@ -2422,7 +2437,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>46</v>
@@ -2447,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>46</v>
@@ -2472,7 +2487,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="20">
@@ -2499,162 +2514,135 @@
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="30"/>
-      <c r="G33" s="31">
+      <c r="G33" s="31" t="e">
         <f>SUM(G22:G31)</f>
-        <v>9350</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H33" s="31"/>
     </row>
-    <row r="34" s="3" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A34" s="17"/>
+    <row r="34" s="3" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A34" s="16"/>
       <c r="B34" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="17"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
+    <row r="35" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A35" s="12">
         <v>1</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="14"/>
-      <c r="D35" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="13">
-        <v>1</v>
-      </c>
-      <c r="F35" s="21">
-        <v>1500</v>
-      </c>
-      <c r="G35" s="15">
-        <v>0</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
+      <c r="D35" s="20"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A36" s="12">
         <v>2</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A37" s="27"/>
+      <c r="B37" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" s="3" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
+      <c r="A39" s="12">
+        <v>1</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E39" s="13">
         <v>1</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F39" s="21">
+        <v>1500</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
+      <c r="A40" s="12">
+        <v>2</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="13">
+        <v>1</v>
+      </c>
+      <c r="F40" s="21">
         <v>3000</v>
       </c>
-      <c r="G36" s="15">
-        <f t="shared" ref="G36:G38" si="4">E36*F36</f>
+      <c r="G40" s="15">
+        <f t="shared" ref="G40:G42" si="4">E40*F40</f>
         <v>3000</v>
       </c>
-      <c r="H36" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A37" s="12">
-        <v>3</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="13">
-        <v>1</v>
-      </c>
-      <c r="F37" s="21">
-        <v>3500</v>
-      </c>
-      <c r="G37" s="15">
-        <f>E37*F37</f>
-        <v>3500</v>
-      </c>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A38" s="12">
-        <v>4</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="13">
-        <v>1</v>
-      </c>
-      <c r="F38" s="21">
-        <v>1100</v>
-      </c>
-      <c r="G38" s="15">
-        <f>E38*F38</f>
-        <v>1100</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A39" s="27"/>
-      <c r="B39" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="30" t="s">
+      <c r="H40" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="31">
-        <f>SUM(G35:G38)</f>
-        <v>7600</v>
-      </c>
-      <c r="H39" s="31"/>
-    </row>
-    <row r="40" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:8">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A41" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>66</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C41" s="14"/>
       <c r="D41" s="20" t="s">
         <v>14</v>
       </c>
@@ -2662,22 +2650,20 @@
         <v>1</v>
       </c>
       <c r="F41" s="21">
-        <v>21000</v>
-      </c>
-      <c r="G41" s="22">
+        <v>3500</v>
+      </c>
+      <c r="G41" s="15">
         <f>E41*F41</f>
-        <v>21000</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>67</v>
-      </c>
+        <v>3500</v>
+      </c>
+      <c r="H41" s="15"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A42" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>66</v>
@@ -2689,75 +2675,54 @@
         <v>1</v>
       </c>
       <c r="F42" s="21">
-        <v>6000</v>
-      </c>
-      <c r="G42" s="22">
+        <v>1100</v>
+      </c>
+      <c r="G42" s="15">
         <f>E42*F42</f>
-        <v>6000</v>
+        <v>1100</v>
       </c>
       <c r="H42" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A43" s="27"/>
+      <c r="B43" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="31">
+        <f>SUM(G39:G42)</f>
+        <v>7600</v>
+      </c>
+      <c r="H43" s="31"/>
+    </row>
+    <row r="44" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:8">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A43" s="12">
-        <v>3</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="13">
-        <v>1</v>
-      </c>
-      <c r="F43" s="21">
-        <v>2400</v>
-      </c>
-      <c r="G43" s="15">
-        <f t="shared" ref="G43:G50" si="5">E43*F43</f>
-        <v>2400</v>
-      </c>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A44" s="12">
-        <v>4</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="13">
-        <v>1</v>
-      </c>
-      <c r="F44" s="21">
-        <v>2500</v>
-      </c>
-      <c r="G44" s="15">
-        <f>E44*F44</f>
-        <v>2500</v>
-      </c>
-      <c r="H44" s="15"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A45" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>14</v>
@@ -2766,74 +2731,78 @@
         <v>1</v>
       </c>
       <c r="F45" s="21">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="G45" s="22">
         <f>E45*F45</f>
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A46" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="14"/>
+        <v>73</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="D46" s="20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E46" s="13">
         <v>1</v>
       </c>
       <c r="F46" s="21">
-        <v>300</v>
-      </c>
-      <c r="G46" s="15">
+        <v>6000</v>
+      </c>
+      <c r="G46" s="22">
         <f>E46*F46</f>
-        <v>300</v>
-      </c>
-      <c r="H46" s="15"/>
+        <v>6000</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A47" s="12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E47" s="13">
         <v>1</v>
       </c>
       <c r="F47" s="21">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="G47" s="15">
-        <f>E47*F47</f>
-        <v>3000</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>79</v>
-      </c>
+        <f t="shared" ref="G47:G54" si="5">E47*F47</f>
+        <v>2400</v>
+      </c>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A48" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="D48" s="20" t="s">
         <v>31</v>
       </c>
@@ -2841,45 +2810,47 @@
         <v>1</v>
       </c>
       <c r="F48" s="21">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="G48" s="15">
         <f>E48*F48</f>
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="H48" s="15"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A49" s="12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E49" s="13">
         <v>1</v>
       </c>
       <c r="F49" s="21">
-        <v>300</v>
-      </c>
-      <c r="G49" s="15">
+        <v>8000</v>
+      </c>
+      <c r="G49" s="22">
         <f>E49*F49</f>
-        <v>300</v>
-      </c>
-      <c r="H49" s="15"/>
+        <v>8000</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A50" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="20" t="s">
@@ -2889,176 +2860,174 @@
         <v>1</v>
       </c>
       <c r="F50" s="21">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G50" s="15">
         <f>E50*F50</f>
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H50" s="15"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A51" s="12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E51" s="13">
         <v>1</v>
       </c>
       <c r="F51" s="21">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="G51" s="15">
-        <v>1400</v>
-      </c>
-      <c r="H51" s="15"/>
-    </row>
-    <row r="52" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
-      <c r="A52" s="28"/>
-      <c r="B52" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" s="31">
-        <f>SUM(G41:G51)</f>
-        <v>49200</v>
-      </c>
-      <c r="H52" s="13"/>
-    </row>
-    <row r="53" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17" t="s">
+        <f>E51*F51</f>
+        <v>3000</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
+      <c r="A52" s="12">
+        <v>8</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="13">
+        <v>1</v>
+      </c>
+      <c r="F52" s="21">
+        <v>3500</v>
+      </c>
+      <c r="G52" s="15">
+        <f>E52*F52</f>
+        <v>3500</v>
+      </c>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
+      <c r="A53" s="12">
+        <v>9</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="25.5" customHeight="1" spans="1:8">
+      <c r="C53" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="13">
+        <v>1</v>
+      </c>
+      <c r="F53" s="21">
+        <v>300</v>
+      </c>
+      <c r="G53" s="15">
+        <f>E53*F53</f>
+        <v>300</v>
+      </c>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A54" s="12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="14" t="s">
         <v>88</v>
       </c>
+      <c r="C54" s="14"/>
       <c r="D54" s="20" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E54" s="13">
         <v>1</v>
       </c>
       <c r="F54" s="21">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G54" s="15">
-        <v>0</v>
-      </c>
-      <c r="H54" s="15" t="s">
+        <f>E54*F54</f>
+        <v>800</v>
+      </c>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
+      <c r="A55" s="12">
+        <v>11</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="55" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
-      <c r="A55" s="12">
-        <v>2</v>
-      </c>
-      <c r="B55" s="13" t="s">
+      <c r="C55" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>91</v>
-      </c>
       <c r="D55" s="20" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E55" s="13">
         <v>1</v>
       </c>
       <c r="F55" s="21">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="G55" s="15">
-        <v>0</v>
-      </c>
-      <c r="H55" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
+      <c r="A56" s="28"/>
+      <c r="B56" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="31">
+        <f>SUM(G45:G55)</f>
+        <v>49200</v>
+      </c>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="39"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="25.5" customHeight="1" spans="1:8">
+      <c r="A58" s="12">
+        <v>1</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
-      <c r="A56" s="12">
-        <v>3</v>
-      </c>
-      <c r="B56" s="13" t="s">
+      <c r="C58" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="13">
-        <v>1</v>
-      </c>
-      <c r="F56" s="21">
-        <v>3000</v>
-      </c>
-      <c r="G56" s="15">
-        <v>0</v>
-      </c>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
-      <c r="A57" s="12">
-        <v>4</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="13">
-        <v>1</v>
-      </c>
-      <c r="F57" s="21">
-        <v>700</v>
-      </c>
-      <c r="G57" s="15">
-        <v>0</v>
-      </c>
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
-      <c r="A58" s="12">
-        <v>5</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>14</v>
@@ -3067,76 +3036,98 @@
         <v>1</v>
       </c>
       <c r="F58" s="21">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="G58" s="15">
         <v>0</v>
       </c>
-      <c r="H58" s="15"/>
+      <c r="H58" s="15" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="59" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
       <c r="A59" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E59" s="13">
         <v>1</v>
       </c>
       <c r="F59" s="21">
-        <v>350</v>
+        <v>2500</v>
       </c>
       <c r="G59" s="15">
-        <f>E59*F59</f>
-        <v>350</v>
-      </c>
-      <c r="H59" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="60" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
-      <c r="A60" s="28"/>
-      <c r="B60" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" s="31">
-        <f>SUM(G54:G59)</f>
-        <v>350</v>
-      </c>
-      <c r="H60" s="13"/>
-    </row>
-    <row r="61" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17" t="s">
+      <c r="A60" s="12">
+        <v>3</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="13">
+        <v>1</v>
+      </c>
+      <c r="F60" s="21">
+        <v>3000</v>
+      </c>
+      <c r="G60" s="15">
+        <v>0</v>
+      </c>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
+      <c r="A61" s="12">
+        <v>4</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="D61" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="13">
+        <v>1</v>
+      </c>
+      <c r="F61" s="21">
+        <v>700</v>
+      </c>
+      <c r="G61" s="15">
+        <v>0</v>
+      </c>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
       <c r="A62" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>14</v>
@@ -3145,154 +3136,154 @@
         <v>1</v>
       </c>
       <c r="F62" s="21">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="G62" s="15">
         <v>0</v>
       </c>
-      <c r="H62" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
       <c r="A63" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E63" s="13">
         <v>1</v>
       </c>
       <c r="F63" s="21">
-        <v>2500</v>
+        <v>350</v>
       </c>
       <c r="G63" s="15">
-        <v>0</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A64" s="12">
-        <v>3</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E64" s="13">
+        <f>E63*F63</f>
+        <v>350</v>
+      </c>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
+      <c r="A64" s="28"/>
+      <c r="B64" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="31">
+        <f>SUM(G58:G63)</f>
+        <v>350</v>
+      </c>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="39"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A66" s="12">
         <v>1</v>
       </c>
-      <c r="F64" s="21">
-        <v>3500</v>
-      </c>
-      <c r="G64" s="15">
-        <v>0</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A65" s="12">
-        <v>4</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" s="20" t="s">
+      <c r="B66" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="E65" s="13">
-        <v>1</v>
-      </c>
-      <c r="F65" s="21">
-        <v>700</v>
-      </c>
-      <c r="G65" s="15">
-        <v>0</v>
-      </c>
-      <c r="H65" s="15"/>
-    </row>
-    <row r="66" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
-      <c r="A66" s="12">
-        <v>5</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="E66" s="13">
         <v>1</v>
       </c>
       <c r="F66" s="21">
-        <v>450</v>
+        <v>2000</v>
       </c>
       <c r="G66" s="15">
-        <f t="shared" ref="G66:G71" si="6">E66*F66</f>
-        <v>450</v>
-      </c>
-      <c r="H66" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="67" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A67" s="12"/>
+      <c r="A67" s="12">
+        <v>2</v>
+      </c>
       <c r="B67" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="21" t="s">
-        <v>63</v>
+        <v>95</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="13">
+        <v>1</v>
+      </c>
+      <c r="F67" s="21">
+        <v>2500</v>
       </c>
       <c r="G67" s="15">
-        <f>SUM(G62:G66)</f>
-        <v>450</v>
-      </c>
-      <c r="H67" s="15"/>
-    </row>
-    <row r="68" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A68" s="12">
+        <v>3</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="13">
+        <v>1</v>
+      </c>
+      <c r="F68" s="21">
+        <v>3500</v>
+      </c>
+      <c r="G68" s="15">
+        <v>0</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="69" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A69" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>14</v>
@@ -3301,254 +3292,229 @@
         <v>1</v>
       </c>
       <c r="F69" s="21">
-        <v>5700</v>
+        <v>700</v>
       </c>
       <c r="G69" s="15">
         <v>0</v>
       </c>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+    <row r="70" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
       <c r="A70" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E70" s="13">
         <v>1</v>
       </c>
       <c r="F70" s="21">
-        <v>6500</v>
+        <v>450</v>
       </c>
       <c r="G70" s="15">
-        <f>E70*F70</f>
-        <v>6500</v>
+        <f t="shared" ref="G70:G75" si="6">E70*F70</f>
+        <v>450</v>
       </c>
       <c r="H70" s="15"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A71" s="12">
-        <v>3</v>
-      </c>
+      <c r="A71" s="12"/>
       <c r="B71" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G71" s="15">
+        <f>SUM(G66:G70)</f>
+        <v>450</v>
+      </c>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" s="13">
-        <v>1</v>
-      </c>
-      <c r="F71" s="21">
-        <v>6000</v>
-      </c>
-      <c r="G71" s="15">
-        <f>E71*F71</f>
-        <v>6000</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A72" s="12">
-        <v>4</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="13">
-        <v>1</v>
-      </c>
-      <c r="F72" s="21">
-        <v>1500</v>
-      </c>
-      <c r="G72" s="15">
-        <v>0</v>
-      </c>
-      <c r="H72" s="15"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A73" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E73" s="13">
         <v>1</v>
       </c>
       <c r="F73" s="21">
-        <v>1300</v>
-      </c>
-      <c r="G73" s="21">
+        <v>5700</v>
+      </c>
+      <c r="G73" s="15">
         <v>0</v>
       </c>
       <c r="H73" s="15"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A74" s="12"/>
+      <c r="A74" s="12">
+        <v>2</v>
+      </c>
       <c r="B74" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="21" t="s">
-        <v>63</v>
+        <v>114</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="13">
+        <v>1</v>
+      </c>
+      <c r="F74" s="21">
+        <v>6500</v>
       </c>
       <c r="G74" s="15">
-        <f>SUM(G69:G73)</f>
-        <v>12500</v>
+        <f>E74*F74</f>
+        <v>6500</v>
       </c>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17" t="s">
+    <row r="75" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A75" s="12">
+        <v>3</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="39"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
+      <c r="D75" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="13">
+        <v>1</v>
+      </c>
+      <c r="F75" s="21">
+        <v>6000</v>
+      </c>
+      <c r="G75" s="15">
+        <f>E75*F75</f>
+        <v>6000</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="76" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A76" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E76" s="13">
         <v>1</v>
       </c>
       <c r="F76" s="21">
-        <v>6000</v>
-      </c>
-      <c r="G76" s="22">
-        <v>8000</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>119</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="G76" s="15">
+        <v>0</v>
+      </c>
+      <c r="H76" s="15"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A77" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="15" t="s">
         <v>121</v>
       </c>
+      <c r="C77" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="D77" s="20" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="F77" s="21">
-        <v>500</v>
-      </c>
-      <c r="G77" s="15">
-        <f t="shared" ref="G77:G82" si="7">E77*F77</f>
-        <v>500</v>
-      </c>
-      <c r="H77" s="42"/>
+        <v>1300</v>
+      </c>
+      <c r="G77" s="21">
+        <v>0</v>
+      </c>
+      <c r="H77" s="15"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A78" s="12">
-        <v>3</v>
-      </c>
+      <c r="A78" s="12"/>
       <c r="B78" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" s="15">
+        <f>SUM(G73:G77)</f>
+        <v>12500</v>
+      </c>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E78" s="13">
-        <v>1</v>
-      </c>
-      <c r="F78" s="21">
-        <v>900</v>
-      </c>
-      <c r="G78" s="22">
-        <v>1000</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A79" s="12">
-        <v>4</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E79" s="13">
-        <v>1</v>
-      </c>
-      <c r="F79" s="21">
-        <v>2500</v>
-      </c>
-      <c r="G79" s="22">
-        <v>5000</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>124</v>
-      </c>
+      <c r="C79" s="39"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A80" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>31</v>
@@ -3557,46 +3523,49 @@
         <v>1</v>
       </c>
       <c r="F80" s="21">
-        <v>1500</v>
-      </c>
-      <c r="G80" s="15">
-        <f t="shared" ref="G80:G82" si="8">E80*F80</f>
-        <v>1500</v>
-      </c>
-      <c r="H80" s="15"/>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="17" customHeight="1" spans="1:8">
+        <v>6000</v>
+      </c>
+      <c r="G80" s="22">
+        <v>8000</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A81" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="14"/>
+        <v>125</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>126</v>
+      </c>
       <c r="D81" s="20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="F81" s="21">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G81" s="15">
-        <f>E81*F81</f>
-        <v>800</v>
-      </c>
-      <c r="H81" s="15"/>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="17" customHeight="1" spans="1:8">
+        <f t="shared" ref="G81:G86" si="7">E81*F81</f>
+        <v>500</v>
+      </c>
+      <c r="H81" s="42"/>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A82" s="12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>31</v>
@@ -3605,53 +3574,74 @@
         <v>1</v>
       </c>
       <c r="F82" s="21">
-        <v>300</v>
-      </c>
-      <c r="G82" s="15">
-        <f>E82*F82</f>
-        <v>300</v>
-      </c>
-      <c r="H82" s="15"/>
+        <v>900</v>
+      </c>
+      <c r="G82" s="22">
+        <v>1000</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="83" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A83" s="12"/>
+      <c r="A83" s="12">
+        <v>4</v>
+      </c>
       <c r="B83" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G83" s="15">
-        <f>SUM(G76:G82)</f>
-        <v>17100</v>
-      </c>
-      <c r="H83" s="15"/>
-    </row>
-    <row r="84" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C84" s="39"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="13">
+        <v>1</v>
+      </c>
+      <c r="F83" s="21">
+        <v>2500</v>
+      </c>
+      <c r="G83" s="22">
+        <v>5000</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A84" s="12">
+        <v>5</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="13">
+        <v>1</v>
+      </c>
+      <c r="F84" s="21">
+        <v>1500</v>
+      </c>
+      <c r="G84" s="15">
+        <f t="shared" ref="G84:G86" si="8">E84*F84</f>
+        <v>1500</v>
+      </c>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="17" customHeight="1" spans="1:8">
       <c r="A85" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>129</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C85" s="14"/>
       <c r="D85" s="20" t="s">
         <v>31</v>
       </c>
@@ -3659,96 +3649,74 @@
         <v>1</v>
       </c>
       <c r="F85" s="21">
-        <v>4500</v>
-      </c>
-      <c r="G85" s="22">
-        <v>5500</v>
-      </c>
-      <c r="H85" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+        <v>800</v>
+      </c>
+      <c r="G85" s="15">
+        <f>E85*F85</f>
+        <v>800</v>
+      </c>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="17" customHeight="1" spans="1:8">
       <c r="A86" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>121</v>
+        <v>86</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E86" s="13">
         <v>1</v>
       </c>
       <c r="F86" s="21">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G86" s="15">
         <f>E86*F86</f>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H86" s="15"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A87" s="12">
-        <v>3</v>
-      </c>
+      <c r="A87" s="12"/>
       <c r="B87" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E87" s="13">
-        <v>1</v>
-      </c>
-      <c r="F87" s="21">
-        <v>900</v>
-      </c>
-      <c r="G87" s="22">
-        <v>1000</v>
-      </c>
-      <c r="H87" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A88" s="12">
-        <v>4</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E88" s="13">
-        <v>1</v>
-      </c>
-      <c r="F88" s="21">
-        <v>3000</v>
-      </c>
-      <c r="G88" s="15">
-        <v>2000</v>
-      </c>
-      <c r="H88" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" s="15">
+        <f>SUM(G80:G86)</f>
+        <v>17100</v>
+      </c>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="39"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A89" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>134</v>
@@ -3760,49 +3728,50 @@
         <v>1</v>
       </c>
       <c r="F89" s="21">
-        <v>2400</v>
+        <v>4500</v>
       </c>
       <c r="G89" s="22">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A90" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="F90" s="21">
-        <v>3300</v>
-      </c>
-      <c r="G90" s="22">
-        <v>3600</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="17" customHeight="1" spans="1:8">
+        <v>500</v>
+      </c>
+      <c r="G90" s="15">
+        <f>E90*F90</f>
+        <v>500</v>
+      </c>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A91" s="12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" s="14"/>
+        <v>127</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="D91" s="20" t="s">
         <v>31</v>
       </c>
@@ -3810,22 +3779,25 @@
         <v>1</v>
       </c>
       <c r="F91" s="21">
-        <v>800</v>
-      </c>
-      <c r="G91" s="15">
-        <f t="shared" ref="G91:G93" si="9">E91*F91</f>
-        <v>800</v>
-      </c>
-      <c r="H91" s="15"/>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="17" customHeight="1" spans="1:8">
+        <v>900</v>
+      </c>
+      <c r="G91" s="22">
+        <v>1000</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A92" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C92" s="14"/>
+      <c r="C92" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="D92" s="20" t="s">
         <v>31</v>
       </c>
@@ -3833,23 +3805,22 @@
         <v>1</v>
       </c>
       <c r="F92" s="21">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="G92" s="15">
-        <f>E92*F92</f>
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" s="2" customFormat="1" ht="17" customHeight="1" spans="1:8">
+    <row r="93" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A93" s="12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>31</v>
@@ -3858,72 +3829,96 @@
         <v>1</v>
       </c>
       <c r="F93" s="21">
-        <v>300</v>
-      </c>
-      <c r="G93" s="15">
-        <f>E93*F93</f>
-        <v>300</v>
-      </c>
-      <c r="H93" s="15"/>
+        <v>2400</v>
+      </c>
+      <c r="G93" s="22">
+        <v>2500</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="94" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A94" s="12"/>
+      <c r="A94" s="12">
+        <v>6</v>
+      </c>
       <c r="B94" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G94" s="15">
-        <f>SUM(G85:G93)</f>
-        <v>16800</v>
-      </c>
-      <c r="H94" s="15"/>
-    </row>
-    <row r="95" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" s="39"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-    </row>
-    <row r="96" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="13">
+        <v>1</v>
+      </c>
+      <c r="F94" s="21">
+        <v>3300</v>
+      </c>
+      <c r="G94" s="22">
+        <v>3600</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A95" s="12">
+        <v>7</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="13">
+        <v>1</v>
+      </c>
+      <c r="F95" s="21">
+        <v>800</v>
+      </c>
+      <c r="G95" s="15">
+        <f t="shared" ref="G95:G97" si="9">E95*F95</f>
+        <v>800</v>
+      </c>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" s="2" customFormat="1" ht="17" customHeight="1" spans="1:8">
       <c r="A96" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E96" s="13"/>
+      <c r="E96" s="13">
+        <v>1</v>
+      </c>
       <c r="F96" s="21">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="G96" s="15">
-        <v>3000</v>
-      </c>
-      <c r="H96" s="42"/>
-    </row>
-    <row r="97" s="3" customFormat="1" ht="18" customHeight="1" spans="1:8">
+        <f>E96*F96</f>
+        <v>600</v>
+      </c>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="17" customHeight="1" spans="1:8">
       <c r="A97" s="12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>31</v>
@@ -3932,99 +3927,72 @@
         <v>1</v>
       </c>
       <c r="F97" s="21">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="G97" s="15">
-        <f t="shared" ref="G97:G101" si="10">E97*F97</f>
-        <v>700</v>
+        <f>E97*F97</f>
+        <v>300</v>
       </c>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
-      <c r="A98" s="12">
-        <v>4</v>
-      </c>
+    <row r="98" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A98" s="12"/>
       <c r="B98" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E98" s="13">
+        <v>28</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G98" s="15">
+        <f>SUM(G89:G97)</f>
+        <v>16800</v>
+      </c>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="39"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A100" s="12">
         <v>1</v>
-      </c>
-      <c r="F98" s="21">
-        <v>2300</v>
-      </c>
-      <c r="G98" s="15">
-        <f>E98*F98</f>
-        <v>2300</v>
-      </c>
-      <c r="H98" s="15"/>
-    </row>
-    <row r="99" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
-      <c r="A99" s="12">
-        <v>5</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E99" s="13">
-        <v>1</v>
-      </c>
-      <c r="F99" s="21">
-        <v>3000</v>
-      </c>
-      <c r="G99" s="22">
-        <v>4000</v>
-      </c>
-      <c r="H99" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
-      <c r="A100" s="12">
-        <v>6</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C100" s="14" t="s">
-        <v>145</v>
-      </c>
+      <c r="C100" s="14"/>
       <c r="D100" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E100" s="13">
-        <v>1</v>
-      </c>
+      <c r="E100" s="13"/>
       <c r="F100" s="21">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="G100" s="15">
-        <f>E100*F100</f>
-        <v>1700</v>
-      </c>
-      <c r="H100" s="15"/>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
+        <v>3000</v>
+      </c>
+      <c r="H100" s="42"/>
+    </row>
+    <row r="101" s="3" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A101" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D101" s="20" t="s">
         <v>31</v>
@@ -4033,51 +4001,75 @@
         <v>1</v>
       </c>
       <c r="F101" s="21">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="G101" s="15">
-        <f>E101*F101</f>
-        <v>300</v>
+        <f t="shared" ref="G101:G105" si="10">E101*F101</f>
+        <v>700</v>
       </c>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
-      <c r="A102" s="28"/>
-      <c r="B102" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C102" s="29"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G102" s="31">
-        <f>SUM(G96:G101)</f>
-        <v>12000</v>
-      </c>
-      <c r="H102" s="31"/>
-    </row>
-    <row r="103" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103" s="39"/>
-      <c r="D103" s="40"/>
-      <c r="E103" s="40"/>
-      <c r="F103" s="40"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-    </row>
-    <row r="104" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+    <row r="102" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
+      <c r="A102" s="12">
+        <v>4</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" s="13">
+        <v>1</v>
+      </c>
+      <c r="F102" s="21">
+        <v>2300</v>
+      </c>
+      <c r="G102" s="15">
+        <f>E102*F102</f>
+        <v>2300</v>
+      </c>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
+      <c r="A103" s="12">
+        <v>5</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" s="13">
+        <v>1</v>
+      </c>
+      <c r="F103" s="21">
+        <v>3000</v>
+      </c>
+      <c r="G103" s="22">
+        <v>4000</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
       <c r="A104" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C104" s="14"/>
+        <v>149</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="D104" s="20" t="s">
         <v>31</v>
       </c>
@@ -4085,21 +4077,24 @@
         <v>1</v>
       </c>
       <c r="F104" s="21">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="G104" s="15">
-        <v>0</v>
-      </c>
-      <c r="H104" s="42"/>
-    </row>
-    <row r="105" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
+        <f>E104*F104</f>
+        <v>1700</v>
+      </c>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A105" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C105" s="14"/>
+        <v>86</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="D105" s="20" t="s">
         <v>31</v>
       </c>
@@ -4107,11 +4102,11 @@
         <v>1</v>
       </c>
       <c r="F105" s="21">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G105" s="15">
-        <f t="shared" ref="G105:G109" si="11">E105*F105</f>
-        <v>500</v>
+        <f>E105*F105</f>
+        <v>300</v>
       </c>
       <c r="H105" s="15"/>
     </row>
@@ -4124,18 +4119,18 @@
       <c r="D106" s="28"/>
       <c r="E106" s="28"/>
       <c r="F106" s="30" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G106" s="31">
-        <f>SUM(G104:G105)</f>
-        <v>500</v>
+        <f>SUM(G100:G105)</f>
+        <v>12000</v>
       </c>
       <c r="H106" s="31"/>
     </row>
     <row r="107" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A107" s="17"/>
       <c r="B107" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C107" s="39"/>
       <c r="D107" s="40"/>
@@ -4149,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C108" s="14"/>
       <c r="D108" s="20" t="s">
@@ -4159,10 +4154,9 @@
         <v>1</v>
       </c>
       <c r="F108" s="21">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G108" s="15">
-        <f>E108*F108</f>
         <v>0</v>
       </c>
       <c r="H108" s="42"/>
@@ -4172,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="20" t="s">
@@ -4182,176 +4176,184 @@
         <v>1</v>
       </c>
       <c r="F109" s="21">
+        <v>500</v>
+      </c>
+      <c r="G109" s="15">
+        <f t="shared" ref="G109:G113" si="11">E109*F109</f>
+        <v>500</v>
+      </c>
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
+      <c r="A110" s="28"/>
+      <c r="B110" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="29"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G110" s="31">
+        <f>SUM(G108:G109)</f>
+        <v>500</v>
+      </c>
+      <c r="H110" s="31"/>
+    </row>
+    <row r="111" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="39"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A112" s="12">
+        <v>1</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" s="13">
+        <v>1</v>
+      </c>
+      <c r="F112" s="21">
         <v>0</v>
       </c>
-      <c r="G109" s="15">
-        <f>E109*F109</f>
+      <c r="G112" s="15">
+        <f>E112*F112</f>
         <v>0</v>
       </c>
-      <c r="H109" s="15"/>
-    </row>
-    <row r="110" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C110" s="39"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="40"/>
-      <c r="F110" s="40"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-    </row>
-    <row r="111" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A111" s="13">
+      <c r="H112" s="42"/>
+    </row>
+    <row r="113" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
+      <c r="A113" s="12">
+        <v>2</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" s="13">
         <v>1</v>
       </c>
-      <c r="B111" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C111" s="43"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="15">
+      <c r="F113" s="21">
+        <v>0</v>
+      </c>
+      <c r="G113" s="15">
+        <f>E113*F113</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="15"/>
+    </row>
+    <row r="114" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A114" s="17"/>
+      <c r="B114" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="39"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+    </row>
+    <row r="115" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A115" s="13">
+        <v>1</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="43"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="15">
         <v>9600</v>
       </c>
-      <c r="H111" s="15"/>
-    </row>
-    <row r="112" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A112" s="28"/>
-      <c r="B112" s="28" t="s">
+      <c r="H115" s="15"/>
+    </row>
+    <row r="116" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A116" s="28"/>
+      <c r="B116" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C112" s="29"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G112" s="31">
-        <f>SUM(G111:G111)</f>
+      <c r="C116" s="29"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G116" s="31">
+        <f>SUM(G115:G115)</f>
         <v>9600</v>
       </c>
-      <c r="H112" s="31"/>
-    </row>
-    <row r="113" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A113" s="47"/>
-      <c r="B113" s="47"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="49"/>
-      <c r="G113" s="50"/>
-      <c r="H113" s="51"/>
-    </row>
-    <row r="114" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A114" s="47"/>
-      <c r="B114" s="47"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="G114" s="52">
-        <f>SUM(G39,G10,G52,G60,G67,G112,G102,G94,G83,G74,G33,G106)</f>
-        <v>135450</v>
-      </c>
-      <c r="H114" s="51"/>
-    </row>
-    <row r="115" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A115" s="47"/>
-      <c r="B115" s="47"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="47"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="49"/>
-      <c r="G115" s="50"/>
-      <c r="H115" s="51"/>
-    </row>
-    <row r="116" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A116" s="53"/>
-      <c r="B116" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C116" s="54"/>
-      <c r="D116" s="55"/>
-      <c r="E116" s="55"/>
-      <c r="F116" s="55"/>
-      <c r="G116" s="56"/>
-      <c r="H116" s="51"/>
+      <c r="H116" s="31"/>
     </row>
     <row r="117" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A117" s="47">
-        <v>1</v>
-      </c>
-      <c r="B117" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C117" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="D117" s="58"/>
-      <c r="E117" s="59">
-        <v>41</v>
-      </c>
-      <c r="F117" s="60">
-        <v>410.8</v>
-      </c>
-      <c r="G117" s="61">
-        <f>E117*F117</f>
-        <v>16842.8</v>
-      </c>
-      <c r="H117" s="62" t="s">
-        <v>158</v>
-      </c>
+      <c r="A117" s="47"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="50"/>
+      <c r="H117" s="51"/>
     </row>
     <row r="118" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A118" s="47"/>
-      <c r="B118" s="48"/>
-      <c r="C118" s="57"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="59"/>
-      <c r="F118" s="60"/>
-      <c r="G118" s="50"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="G118" s="52" t="e">
+        <f>SUM(G43,G10,G56,G64,G71,G116,G106,G98,G87,G78,G33,G110)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="H118" s="51"/>
     </row>
     <row r="119" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A119" s="47"/>
-      <c r="B119" s="48"/>
-      <c r="C119" s="57"/>
-      <c r="D119" s="58"/>
-      <c r="E119" s="59"/>
-      <c r="F119" s="60"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="49"/>
       <c r="G119" s="50"/>
       <c r="H119" s="51"/>
     </row>
     <row r="120" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A120" s="47">
-        <v>1</v>
-      </c>
-      <c r="B120" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="C120" s="57" t="s">
+      <c r="A120" s="53"/>
+      <c r="B120" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="D120" s="58"/>
-      <c r="E120" s="59">
-        <v>3</v>
-      </c>
-      <c r="F120" s="60">
-        <v>0</v>
-      </c>
-      <c r="G120" s="50">
-        <v>0</v>
-      </c>
+      <c r="C120" s="54"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="56"/>
       <c r="H120" s="51"/>
     </row>
     <row r="121" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A121" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" s="48" t="s">
         <v>161</v>
@@ -4361,69 +4363,52 @@
       </c>
       <c r="D121" s="58"/>
       <c r="E121" s="59">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F121" s="60">
-        <v>0</v>
-      </c>
-      <c r="G121" s="50">
-        <v>0</v>
-      </c>
-      <c r="H121" s="51"/>
+        <v>410.8</v>
+      </c>
+      <c r="G121" s="61">
+        <f>E121*F121</f>
+        <v>16842.8</v>
+      </c>
+      <c r="H121" s="62" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="122" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A122" s="47">
-        <v>3</v>
-      </c>
-      <c r="B122" s="48" t="s">
-        <v>163</v>
-      </c>
+      <c r="A122" s="47"/>
+      <c r="B122" s="48"/>
       <c r="C122" s="57"/>
       <c r="D122" s="58"/>
-      <c r="E122" s="59">
-        <v>1</v>
-      </c>
-      <c r="F122" s="60">
-        <v>0</v>
-      </c>
-      <c r="G122" s="50">
-        <v>0</v>
-      </c>
+      <c r="E122" s="59"/>
+      <c r="F122" s="60"/>
+      <c r="G122" s="50"/>
       <c r="H122" s="51"/>
     </row>
     <row r="123" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A123" s="47">
-        <v>4</v>
-      </c>
-      <c r="B123" s="48" t="s">
-        <v>164</v>
-      </c>
+      <c r="A123" s="47"/>
+      <c r="B123" s="48"/>
       <c r="C123" s="57"/>
       <c r="D123" s="58"/>
-      <c r="E123" s="59">
-        <v>1</v>
-      </c>
-      <c r="F123" s="60">
-        <v>0</v>
-      </c>
-      <c r="G123" s="50">
-        <v>0</v>
-      </c>
+      <c r="E123" s="59"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="50"/>
       <c r="H123" s="51"/>
     </row>
     <row r="124" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A124" s="47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B124" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124" s="57" t="s">
         <v>165</v>
-      </c>
-      <c r="C124" s="57" t="s">
-        <v>166</v>
       </c>
       <c r="D124" s="58"/>
       <c r="E124" s="59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F124" s="60">
         <v>0</v>
@@ -4435,15 +4420,17 @@
     </row>
     <row r="125" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A125" s="47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B125" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C125" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C125" s="63"/>
-      <c r="D125" s="63"/>
+      <c r="D125" s="58"/>
       <c r="E125" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" s="60">
         <v>0</v>
@@ -4455,7 +4442,7 @@
     </row>
     <row r="126" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A126" s="47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B126" s="48" t="s">
         <v>168</v>
@@ -4475,7 +4462,7 @@
     </row>
     <row r="127" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A127" s="47">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B127" s="48" t="s">
         <v>169</v>
@@ -4495,12 +4482,14 @@
     </row>
     <row r="128" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A128" s="47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B128" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="C128" s="57"/>
+      <c r="C128" s="57" t="s">
+        <v>171</v>
+      </c>
       <c r="D128" s="58"/>
       <c r="E128" s="59">
         <v>1</v>
@@ -4513,15 +4502,15 @@
       </c>
       <c r="H128" s="51"/>
     </row>
-    <row r="129" s="4" customFormat="1" ht="31" customHeight="1" spans="1:8">
+    <row r="129" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A129" s="47">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="C129" s="57"/>
-      <c r="D129" s="58"/>
+        <v>172</v>
+      </c>
+      <c r="C129" s="63"/>
+      <c r="D129" s="63"/>
       <c r="E129" s="59">
         <v>1</v>
       </c>
@@ -4533,12 +4522,12 @@
       </c>
       <c r="H129" s="51"/>
     </row>
-    <row r="130" s="4" customFormat="1" ht="28" customHeight="1" spans="1:8">
+    <row r="130" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A130" s="47">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C130" s="57"/>
       <c r="D130" s="58"/>
@@ -4555,10 +4544,10 @@
     </row>
     <row r="131" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A131" s="47">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C131" s="57"/>
       <c r="D131" s="58"/>
@@ -4575,10 +4564,10 @@
     </row>
     <row r="132" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A132" s="47">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C132" s="57"/>
       <c r="D132" s="58"/>
@@ -4593,26 +4582,32 @@
       </c>
       <c r="H132" s="51"/>
     </row>
-    <row r="133" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+    <row r="133" s="4" customFormat="1" ht="31" customHeight="1" spans="1:8">
       <c r="A133" s="47">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B133" s="48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C133" s="57"/>
       <c r="D133" s="58"/>
-      <c r="E133" s="59"/>
-      <c r="F133" s="60"/>
-      <c r="G133" s="50"/>
+      <c r="E133" s="59">
+        <v>1</v>
+      </c>
+      <c r="F133" s="60">
+        <v>0</v>
+      </c>
+      <c r="G133" s="50">
+        <v>0</v>
+      </c>
       <c r="H133" s="51"/>
     </row>
-    <row r="134" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+    <row r="134" s="4" customFormat="1" ht="28" customHeight="1" spans="1:8">
       <c r="A134" s="47">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B134" s="48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C134" s="57"/>
       <c r="D134" s="58"/>
@@ -4629,17 +4624,15 @@
     </row>
     <row r="135" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A135" s="47">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B135" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="C135" s="57" t="s">
-        <v>162</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C135" s="57"/>
       <c r="D135" s="58"/>
       <c r="E135" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F135" s="60">
         <v>0</v>
@@ -4651,10 +4644,10 @@
     </row>
     <row r="136" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A136" s="47">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B136" s="48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C136" s="57"/>
       <c r="D136" s="58"/>
@@ -4671,78 +4664,134 @@
     </row>
     <row r="137" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A137" s="47">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B137" s="48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C137" s="57"/>
       <c r="D137" s="58"/>
-      <c r="E137" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="F137" s="60">
+      <c r="E137" s="59"/>
+      <c r="F137" s="60"/>
+      <c r="G137" s="50"/>
+      <c r="H137" s="51"/>
+    </row>
+    <row r="138" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A138" s="47">
+        <v>16</v>
+      </c>
+      <c r="B138" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C138" s="57"/>
+      <c r="D138" s="58"/>
+      <c r="E138" s="59">
+        <v>1</v>
+      </c>
+      <c r="F138" s="60">
         <v>0</v>
       </c>
-      <c r="G137" s="50">
+      <c r="G138" s="50">
         <v>0</v>
       </c>
-      <c r="H137" s="51"/>
-    </row>
-    <row r="138" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
-      <c r="C138" s="48"/>
-      <c r="D138" s="47"/>
-      <c r="E138" s="47"/>
-      <c r="F138" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="G138" s="50">
-        <f>SUM(G117:G137)</f>
+      <c r="H138" s="51"/>
+    </row>
+    <row r="139" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A139" s="47">
+        <v>17</v>
+      </c>
+      <c r="B139" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C139" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D139" s="58"/>
+      <c r="E139" s="59">
+        <v>2</v>
+      </c>
+      <c r="F139" s="60">
+        <v>0</v>
+      </c>
+      <c r="G139" s="50">
+        <v>0</v>
+      </c>
+      <c r="H139" s="51"/>
+    </row>
+    <row r="140" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A140" s="47">
+        <v>18</v>
+      </c>
+      <c r="B140" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C140" s="57"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="59">
+        <v>1</v>
+      </c>
+      <c r="F140" s="60">
+        <v>0</v>
+      </c>
+      <c r="G140" s="50">
+        <v>0</v>
+      </c>
+      <c r="H140" s="51"/>
+    </row>
+    <row r="141" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A141" s="47">
+        <v>19</v>
+      </c>
+      <c r="B141" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141" s="57"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="F141" s="60">
+        <v>0</v>
+      </c>
+      <c r="G141" s="50">
+        <v>0</v>
+      </c>
+      <c r="H141" s="51"/>
+    </row>
+    <row r="142" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A142" s="47"/>
+      <c r="B142" s="47"/>
+      <c r="C142" s="48"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="G142" s="50">
+        <f>SUM(G121:G141)</f>
         <v>16842.8</v>
       </c>
-      <c r="H138" s="51"/>
-    </row>
-    <row r="139" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A139" s="64"/>
-      <c r="B139" s="64"/>
-      <c r="C139" s="65"/>
-      <c r="D139" s="64"/>
-      <c r="E139" s="64"/>
-      <c r="F139" s="64"/>
-      <c r="G139" s="64"/>
-      <c r="H139" s="52"/>
-    </row>
-    <row r="140" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H140" s="66"/>
-    </row>
-    <row r="141" s="2" customFormat="1" ht="36.95" customHeight="1" spans="3:8">
-      <c r="C141" s="67"/>
-      <c r="G141" s="66"/>
-      <c r="H141" s="66"/>
-    </row>
-    <row r="142" s="2" customFormat="1" ht="39" customHeight="1" spans="3:8">
-      <c r="C142" s="67"/>
-      <c r="G142" s="66"/>
-      <c r="H142" s="66"/>
-    </row>
-    <row r="143" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C143" s="67"/>
-      <c r="G143" s="66"/>
-      <c r="H143" s="66"/>
-    </row>
-    <row r="144" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C144" s="67"/>
-      <c r="G144" s="66"/>
+      <c r="H142" s="51"/>
+    </row>
+    <row r="143" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A143" s="64"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="65"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="64"/>
+      <c r="G143" s="64"/>
+      <c r="H143" s="52"/>
+    </row>
+    <row r="144" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H144" s="66"/>
     </row>
-    <row r="145" s="2" customFormat="1" customHeight="1" spans="3:8">
+    <row r="145" s="2" customFormat="1" ht="36.95" customHeight="1" spans="3:8">
       <c r="C145" s="67"/>
       <c r="G145" s="66"/>
       <c r="H145" s="66"/>
     </row>
-    <row r="146" s="2" customFormat="1" customHeight="1" spans="3:8">
+    <row r="146" s="2" customFormat="1" ht="39" customHeight="1" spans="3:8">
       <c r="C146" s="67"/>
       <c r="G146" s="66"/>
       <c r="H146" s="66"/>
@@ -4792,13 +4841,8 @@
       <c r="G155" s="66"/>
       <c r="H155" s="66"/>
     </row>
-    <row r="156" customHeight="1" spans="1:8">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
+    <row r="156" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C156" s="67"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
       <c r="G156" s="66"/>
       <c r="H156" s="66"/>
     </row>
@@ -4817,8 +4861,13 @@
       <c r="G159" s="66"/>
       <c r="H159" s="66"/>
     </row>
-    <row r="160" s="2" customFormat="1" customHeight="1" spans="3:8">
+    <row r="160" customHeight="1" spans="1:8">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
       <c r="C160" s="67"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
       <c r="G160" s="66"/>
       <c r="H160" s="66"/>
     </row>
@@ -5452,43 +5501,23 @@
       <c r="G286" s="66"/>
       <c r="H286" s="66"/>
     </row>
-    <row r="287" customHeight="1" spans="1:8">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
+    <row r="287" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C287" s="67"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
       <c r="G287" s="66"/>
       <c r="H287" s="66"/>
     </row>
-    <row r="288" customHeight="1" spans="1:8">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
+    <row r="288" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C288" s="67"/>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-      <c r="F288" s="2"/>
       <c r="G288" s="66"/>
       <c r="H288" s="66"/>
     </row>
-    <row r="289" customHeight="1" spans="1:8">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
+    <row r="289" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C289" s="67"/>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
       <c r="G289" s="66"/>
       <c r="H289" s="66"/>
     </row>
-    <row r="290" customHeight="1" spans="1:8">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
+    <row r="290" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C290" s="67"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
       <c r="G290" s="66"/>
       <c r="H290" s="66"/>
     </row>
@@ -48872,8 +48901,48 @@
       <c r="G4628" s="66"/>
       <c r="H4628" s="66"/>
     </row>
+    <row r="4629" customHeight="1" spans="1:8">
+      <c r="A4629" s="2"/>
+      <c r="B4629" s="2"/>
+      <c r="C4629" s="67"/>
+      <c r="D4629" s="2"/>
+      <c r="E4629" s="2"/>
+      <c r="F4629" s="2"/>
+      <c r="G4629" s="66"/>
+      <c r="H4629" s="66"/>
+    </row>
+    <row r="4630" customHeight="1" spans="1:8">
+      <c r="A4630" s="2"/>
+      <c r="B4630" s="2"/>
+      <c r="C4630" s="67"/>
+      <c r="D4630" s="2"/>
+      <c r="E4630" s="2"/>
+      <c r="F4630" s="2"/>
+      <c r="G4630" s="66"/>
+      <c r="H4630" s="66"/>
+    </row>
+    <row r="4631" customHeight="1" spans="1:8">
+      <c r="A4631" s="2"/>
+      <c r="B4631" s="2"/>
+      <c r="C4631" s="67"/>
+      <c r="D4631" s="2"/>
+      <c r="E4631" s="2"/>
+      <c r="F4631" s="2"/>
+      <c r="G4631" s="66"/>
+      <c r="H4631" s="66"/>
+    </row>
+    <row r="4632" customHeight="1" spans="1:8">
+      <c r="A4632" s="2"/>
+      <c r="B4632" s="2"/>
+      <c r="C4632" s="67"/>
+      <c r="D4632" s="2"/>
+      <c r="E4632" s="2"/>
+      <c r="F4632" s="2"/>
+      <c r="G4632" s="66"/>
+      <c r="H4632" s="66"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:FG139"/>
+  <autoFilter ref="A2:FG143"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F2:G2"/>

--- a/common/iris 主要模块/装修预算2.xlsx
+++ b/common/iris 主要模块/装修预算2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
   <si>
     <t xml:space="preserve">馨苑悦湾
 </t>
@@ -382,10 +382,16 @@
     <t>方太</t>
   </si>
   <si>
+    <t>（原价13000 已经全部付清）</t>
+  </si>
+  <si>
     <t>集成灶</t>
   </si>
   <si>
     <t>火星人</t>
+  </si>
+  <si>
+    <t>定金1300 尾款10000</t>
   </si>
   <si>
     <t>冰箱</t>
@@ -606,17 +612,61 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="32">
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -628,16 +678,20 @@
       <charset val="0"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -649,14 +703,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -668,36 +723,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -707,47 +751,9 @@
       <charset val="0"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -840,7 +846,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,25 +900,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,25 +918,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,25 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,16 +1003,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,23 +1035,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,35 +1099,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1107,7 +1113,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,142 +1122,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1275,11 +1281,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1291,7 +1297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1303,7 +1309,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1312,7 +1318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1324,7 +1330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1339,7 +1345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,7 +1363,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1369,7 +1375,7 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1396,13 +1402,13 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,7 +1420,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1429,10 +1435,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1444,7 +1450,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1464,25 +1470,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="输入" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
-    <cellStyle name="差" xfId="15"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="输入" xfId="13"/>
+    <cellStyle name="差" xfId="14"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
+    <cellStyle name="警告文本" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="警告文本" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="强调文字颜色 2" xfId="21"/>
+    <cellStyle name="链接单元格" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="链接单元格" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
-    <cellStyle name="标题 3" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
-    <cellStyle name="输出" xfId="27"/>
+    <cellStyle name="强调文字颜色 2" xfId="23"/>
+    <cellStyle name="标题 3" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
+    <cellStyle name="输出" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
+    <cellStyle name="强调文字颜色 1" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -1831,9 +1837,9 @@
   <dimension ref="A1:H4632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -3370,22 +3376,24 @@
         <v>1</v>
       </c>
       <c r="F73" s="21">
-        <v>5700</v>
-      </c>
-      <c r="G73" s="15">
-        <v>0</v>
-      </c>
-      <c r="H73" s="15"/>
+        <v>7500</v>
+      </c>
+      <c r="G73" s="22">
+        <v>7500</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="74" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A74" s="12">
         <v>2</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>14</v>
@@ -3394,23 +3402,25 @@
         <v>1</v>
       </c>
       <c r="F74" s="21">
-        <v>6500</v>
+        <v>11300</v>
       </c>
       <c r="G74" s="15">
         <f>E74*F74</f>
-        <v>6500</v>
-      </c>
-      <c r="H74" s="15"/>
+        <v>11300</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="75" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A75" s="12">
         <v>3</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>31</v>
@@ -3426,7 +3436,7 @@
         <v>6000</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3434,10 +3444,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>14</v>
@@ -3458,7 +3468,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>78</v>
@@ -3490,14 +3500,14 @@
       </c>
       <c r="G78" s="15">
         <f>SUM(G73:G77)</f>
-        <v>12500</v>
+        <v>24800</v>
       </c>
       <c r="H78" s="15"/>
     </row>
     <row r="79" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C79" s="39"/>
       <c r="D79" s="40"/>
@@ -3511,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>78</v>
@@ -3529,7 +3539,7 @@
         <v>8000</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3537,10 +3547,10 @@
         <v>2</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>14</v>
@@ -3562,10 +3572,10 @@
         <v>3</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>31</v>
@@ -3580,7 +3590,7 @@
         <v>1000</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3588,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>71</v>
@@ -3606,7 +3616,7 @@
         <v>5000</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3614,7 +3624,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>71</v>
@@ -3665,7 +3675,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>31</v>
@@ -3702,7 +3712,7 @@
     <row r="88" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C88" s="39"/>
       <c r="D88" s="40"/>
@@ -3716,10 +3726,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>31</v>
@@ -3734,7 +3744,7 @@
         <v>5500</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3742,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>14</v>
@@ -3767,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>31</v>
@@ -3785,7 +3795,7 @@
         <v>1000</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3793,10 +3803,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>31</v>
@@ -3817,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>31</v>
@@ -3835,7 +3845,7 @@
         <v>2500</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -3843,10 +3853,10 @@
         <v>6</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>31</v>
@@ -3861,7 +3871,7 @@
         <v>3600</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" ht="17" customHeight="1" spans="1:8">
@@ -3892,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="20" t="s">
@@ -3918,7 +3928,7 @@
         <v>86</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>31</v>
@@ -3955,7 +3965,7 @@
     <row r="99" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A99" s="17"/>
       <c r="B99" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C99" s="39"/>
       <c r="D99" s="40"/>
@@ -3969,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="20" t="s">
@@ -3989,10 +3999,10 @@
         <v>3</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D101" s="20" t="s">
         <v>31</v>
@@ -4014,10 +4024,10 @@
         <v>4</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D102" s="20" t="s">
         <v>31</v>
@@ -4039,10 +4049,10 @@
         <v>5</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D103" s="20" t="s">
         <v>31</v>
@@ -4057,7 +4067,7 @@
         <v>4000</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" s="4" customFormat="1" ht="23.1" customHeight="1" spans="1:8">
@@ -4065,10 +4075,10 @@
         <v>6</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D104" s="20" t="s">
         <v>31</v>
@@ -4093,7 +4103,7 @@
         <v>86</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D105" s="20" t="s">
         <v>31</v>
@@ -4130,7 +4140,7 @@
     <row r="107" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A107" s="17"/>
       <c r="B107" s="17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C107" s="39"/>
       <c r="D107" s="40"/>
@@ -4144,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C108" s="14"/>
       <c r="D108" s="20" t="s">
@@ -4166,7 +4176,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="20" t="s">
@@ -4204,7 +4214,7 @@
     <row r="111" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C111" s="39"/>
       <c r="D111" s="40"/>
@@ -4218,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="20" t="s">
@@ -4241,7 +4251,7 @@
         <v>2</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C113" s="14"/>
       <c r="D113" s="20" t="s">
@@ -4262,7 +4272,7 @@
     <row r="114" s="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C114" s="39"/>
       <c r="D114" s="40"/>
@@ -4276,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C115" s="43"/>
       <c r="D115" s="44"/>
@@ -4321,7 +4331,7 @@
       <c r="D118" s="47"/>
       <c r="E118" s="47"/>
       <c r="F118" s="49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G118" s="52" t="e">
         <f>SUM(G43,G10,G56,G64,G71,G116,G106,G98,G87,G78,G33,G110)</f>
@@ -4342,7 +4352,7 @@
     <row r="120" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A120" s="53"/>
       <c r="B120" s="53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C120" s="54"/>
       <c r="D120" s="55"/>
@@ -4356,10 +4366,10 @@
         <v>1</v>
       </c>
       <c r="B121" s="48" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C121" s="57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D121" s="58"/>
       <c r="E121" s="59">
@@ -4373,7 +4383,7 @@
         <v>16842.8</v>
       </c>
       <c r="H121" s="62" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
@@ -4401,10 +4411,10 @@
         <v>1</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C124" s="57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D124" s="58"/>
       <c r="E124" s="59">
@@ -4423,10 +4433,10 @@
         <v>2</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C125" s="57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D125" s="58"/>
       <c r="E125" s="59">
@@ -4445,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="48" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C126" s="57"/>
       <c r="D126" s="58"/>
@@ -4465,7 +4475,7 @@
         <v>4</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C127" s="57"/>
       <c r="D127" s="58"/>
@@ -4485,10 +4495,10 @@
         <v>5</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C128" s="57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D128" s="58"/>
       <c r="E128" s="59">
@@ -4507,7 +4517,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C129" s="63"/>
       <c r="D129" s="63"/>
@@ -4527,7 +4537,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C130" s="57"/>
       <c r="D130" s="58"/>
@@ -4547,7 +4557,7 @@
         <v>8</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C131" s="57"/>
       <c r="D131" s="58"/>
@@ -4567,7 +4577,7 @@
         <v>9</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C132" s="57"/>
       <c r="D132" s="58"/>
@@ -4587,7 +4597,7 @@
         <v>10</v>
       </c>
       <c r="B133" s="48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C133" s="57"/>
       <c r="D133" s="58"/>
@@ -4607,7 +4617,7 @@
         <v>11</v>
       </c>
       <c r="B134" s="48" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C134" s="57"/>
       <c r="D134" s="58"/>
@@ -4627,7 +4637,7 @@
         <v>12</v>
       </c>
       <c r="B135" s="48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C135" s="57"/>
       <c r="D135" s="58"/>
@@ -4647,7 +4657,7 @@
         <v>13</v>
       </c>
       <c r="B136" s="48" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C136" s="57"/>
       <c r="D136" s="58"/>
@@ -4667,7 +4677,7 @@
         <v>14</v>
       </c>
       <c r="B137" s="48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C137" s="57"/>
       <c r="D137" s="58"/>
@@ -4681,7 +4691,7 @@
         <v>16</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C138" s="57"/>
       <c r="D138" s="58"/>
@@ -4701,10 +4711,10 @@
         <v>17</v>
       </c>
       <c r="B139" s="48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C139" s="57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D139" s="58"/>
       <c r="E139" s="59">
@@ -4723,7 +4733,7 @@
         <v>18</v>
       </c>
       <c r="B140" s="48" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C140" s="57"/>
       <c r="D140" s="58"/>
@@ -4743,12 +4753,12 @@
         <v>19</v>
       </c>
       <c r="B141" s="48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C141" s="57"/>
       <c r="D141" s="58"/>
       <c r="E141" s="59" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F141" s="60">
         <v>0</v>
@@ -4765,7 +4775,7 @@
       <c r="D142" s="47"/>
       <c r="E142" s="47"/>
       <c r="F142" s="49" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G142" s="50">
         <f>SUM(G121:G141)</f>

--- a/common/iris 主要模块/装修预算2.xlsx
+++ b/common/iris 主要模块/装修预算2.xlsx
@@ -76,7 +76,7 @@
     <t>大金，一拖五</t>
   </si>
   <si>
-    <t>同地暖一起</t>
+    <t>同地暖一起，空调大金3年保修，地暖2年，隐蔽工程终身。发票晚些开延长时间</t>
   </si>
   <si>
     <t>封阳台</t>
@@ -106,7 +106,7 @@
     </r>
   </si>
   <si>
-    <t>定金10000 尾款19800</t>
+    <t>（定金10000+架子10000） 尾款9800 留1500</t>
   </si>
   <si>
     <t>地板找平</t>
@@ -612,13 +612,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -628,7 +628,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -638,19 +638,6 @@
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -671,9 +658,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -685,22 +678,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="63"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -710,8 +724,9 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -730,30 +745,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -840,7 +840,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +888,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,79 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,6 +1003,39 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="63"/>
       </left>
       <right style="thin">
@@ -1013,6 +1046,32 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,67 +1094,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,7 +1113,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,142 +1122,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1281,11 +1281,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1297,7 +1297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,7 +1309,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,7 +1318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1330,7 +1330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1345,7 +1345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1363,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,7 +1375,7 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1402,13 +1402,13 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1420,7 +1420,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1435,10 +1435,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1450,7 +1450,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1837,9 +1837,9 @@
   <dimension ref="A1:H4632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -1851,7 +1851,7 @@
     <col min="5" max="5" width="7.03333333333333" style="7" customWidth="1"/>
     <col min="6" max="6" width="14.6" style="7" customWidth="1"/>
     <col min="7" max="7" width="17.2583333333333" style="9" customWidth="1"/>
-    <col min="8" max="8" width="38.3666666666667" style="9" customWidth="1"/>
+    <col min="8" max="8" width="43.625" style="9" customWidth="1"/>
     <col min="9" max="9" width="12.575" style="2" customWidth="1"/>
     <col min="10" max="252" width="8.95" style="2"/>
     <col min="253" max="16384" width="9" style="10"/>
